--- a/data/trans_orig/P1401-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Clase-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6194</v>
+        <v>5301</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002437221939439623</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01416676392725744</v>
+        <v>0.01212414369679116</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -764,19 +764,19 @@
         <v>4856</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1898</v>
+        <v>1916</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10698</v>
+        <v>11064</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01544153397621802</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006034987875566608</v>
+        <v>0.006092782454468397</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03402047204589179</v>
+        <v>0.03518487133262818</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>5921</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1992</v>
+        <v>1976</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12052</v>
+        <v>12299</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007877492618776131</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002650444615048495</v>
+        <v>0.002628399719466326</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01603440238499201</v>
+        <v>0.01636178452230282</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>436145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>431017</v>
+        <v>431910</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -823,7 +823,7 @@
         <v>0.9975627780605604</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9858332360727433</v>
+        <v>0.9878758563032088</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,19 +835,19 @@
         <v>309598</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>303756</v>
+        <v>303390</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>312556</v>
+        <v>312538</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9845584660237819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9659795279541082</v>
+        <v>0.9648151286673716</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9939650121244333</v>
+        <v>0.9939072175455316</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>681</v>
@@ -856,19 +856,19 @@
         <v>745744</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>739613</v>
+        <v>739366</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>749673</v>
+        <v>749689</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9921225073812239</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9839655976150082</v>
+        <v>0.9836382154776976</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9973495553849515</v>
+        <v>0.9973716002805336</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>4152</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9952</v>
+        <v>9660</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00991430823923002</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002541317104530988</v>
+        <v>0.002504787043424951</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02376318509750007</v>
+        <v>0.02306574959665144</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -981,19 +981,19 @@
         <v>5887</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2093</v>
+        <v>1974</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13009</v>
+        <v>13510</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01741705944006669</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006192662655609981</v>
+        <v>0.005840575468119077</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0384855891033309</v>
+        <v>0.03996878826491761</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1002,19 +1002,19 @@
         <v>10039</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5121</v>
+        <v>4388</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18541</v>
+        <v>18249</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01326524135146073</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006765990279836692</v>
+        <v>0.005798251360266527</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02449933891067896</v>
+        <v>0.02411374603389747</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>414645</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>408845</v>
+        <v>409137</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417733</v>
+        <v>417748</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.99008569176077</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9762368149024996</v>
+        <v>0.9769342504033487</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.997458682895469</v>
+        <v>0.9974952129565751</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>300</v>
@@ -1052,19 +1052,19 @@
         <v>332124</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325002</v>
+        <v>324501</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>335918</v>
+        <v>336037</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9825829405599333</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9615144108966682</v>
+        <v>0.9600312117350824</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.99380733734439</v>
+        <v>0.9941594245318809</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>671</v>
@@ -1073,19 +1073,19 @@
         <v>746769</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>738267</v>
+        <v>738559</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>751687</v>
+        <v>752420</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9867347586485393</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9755006610893208</v>
+        <v>0.9758862539661025</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9932340097201633</v>
+        <v>0.9942017486397333</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>14515</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8956</v>
+        <v>7831</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26069</v>
+        <v>24440</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02306134753661476</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01422885310046717</v>
+        <v>0.01244172384257577</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04141731258505739</v>
+        <v>0.03882983000169407</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1198,19 +1198,19 @@
         <v>8339</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3938</v>
+        <v>3671</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16199</v>
+        <v>15204</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03205597489534179</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.015139063503853</v>
+        <v>0.01411066458319025</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0622721536277672</v>
+        <v>0.05844641700052367</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>22854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15224</v>
+        <v>14778</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34624</v>
+        <v>34044</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02569164646621607</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01711392213432828</v>
+        <v>0.01661345755048995</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03892328141438311</v>
+        <v>0.03827177819183682</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>614900</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>603346</v>
+        <v>604975</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>620459</v>
+        <v>621584</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9769386524633853</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9585826874149425</v>
+        <v>0.961170169998306</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9857711468995328</v>
+        <v>0.9875582761574242</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>236</v>
@@ -1269,19 +1269,19 @@
         <v>251790</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>243930</v>
+        <v>244925</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>256191</v>
+        <v>256458</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9679440251046582</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9377278463722327</v>
+        <v>0.9415535829994764</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.984860936496147</v>
+        <v>0.9858893354168098</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>814</v>
@@ -1290,19 +1290,19 @@
         <v>866690</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>854920</v>
+        <v>855500</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>874320</v>
+        <v>874766</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.974308353533784</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9610767185856171</v>
+        <v>0.9617282218081636</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9828860778656718</v>
+        <v>0.9833865424495101</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>14628</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8143</v>
+        <v>8180</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23962</v>
+        <v>25352</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01262113886497526</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007026141525420157</v>
+        <v>0.007058160519945436</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02067428985936463</v>
+        <v>0.02187422251875549</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1415,19 +1415,19 @@
         <v>14869</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7187</v>
+        <v>7882</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25866</v>
+        <v>27203</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01944382582885313</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009398180100640557</v>
+        <v>0.01030667920736534</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0338241788253223</v>
+        <v>0.03557203929684232</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1436,19 +1436,19 @@
         <v>29497</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18955</v>
+        <v>19661</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44299</v>
+        <v>43628</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01533329505459174</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009853111004777719</v>
+        <v>0.01022013603735581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02302746340830806</v>
+        <v>0.02267897703751562</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1144381</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1135047</v>
+        <v>1133657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1150866</v>
+        <v>1150829</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9873788611350247</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9793257101406355</v>
+        <v>0.978125777481245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9929738584745801</v>
+        <v>0.9929418394800545</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>699</v>
@@ -1486,19 +1486,19 @@
         <v>749853</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>738856</v>
+        <v>737519</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>757535</v>
+        <v>756840</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9805561741711468</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9661758211746768</v>
+        <v>0.9644279607031576</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9906018198993594</v>
+        <v>0.9896933207926346</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1769</v>
@@ -1507,19 +1507,19 @@
         <v>1894234</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1879432</v>
+        <v>1880103</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1904776</v>
+        <v>1904070</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9846667049454082</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9769725365916919</v>
+        <v>0.9773210229624844</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9901468889952222</v>
+        <v>0.9897798639626442</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>3910</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>967</v>
+        <v>995</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10059</v>
+        <v>9713</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007657300601597924</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001894381628515991</v>
+        <v>0.001948665414563416</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01970093369512604</v>
+        <v>0.01902308253606971</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1632,19 +1632,19 @@
         <v>18376</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10887</v>
+        <v>11067</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28438</v>
+        <v>29372</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02417137223875458</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01432031085356143</v>
+        <v>0.0145577874460181</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03740680323765268</v>
+        <v>0.03863455613213902</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1653,19 +1653,19 @@
         <v>22286</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14192</v>
+        <v>14409</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33852</v>
+        <v>33470</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01753638559942297</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01116716172035384</v>
+        <v>0.01133847496924853</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02663716559635019</v>
+        <v>0.02633648460494913</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>506686</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>500537</v>
+        <v>500883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509629</v>
+        <v>509601</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.992342699398402</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9802990663048733</v>
+        <v>0.9809769174639306</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9981056183714838</v>
+        <v>0.9980513345854366</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>685</v>
@@ -1703,19 +1703,19 @@
         <v>741870</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>731808</v>
+        <v>730874</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>749359</v>
+        <v>749179</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9758286277612455</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9625931967623473</v>
+        <v>0.9613654438678595</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9856796891464386</v>
+        <v>0.9854422125539813</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1168</v>
@@ -1724,19 +1724,19 @@
         <v>1248557</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1236991</v>
+        <v>1237373</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1256651</v>
+        <v>1256434</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9824636144005771</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9733628344036499</v>
+        <v>0.9736635153950507</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9888328382796466</v>
+        <v>0.9886615250307511</v>
       </c>
     </row>
     <row r="18">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4079</v>
+        <v>4449</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003351659767634023</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01528540187740612</v>
+        <v>0.01667054761506256</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1849,19 +1849,19 @@
         <v>19290</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11638</v>
+        <v>11807</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29352</v>
+        <v>30077</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01738893568098714</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01049066309763527</v>
+        <v>0.01064279684924715</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02645858599815773</v>
+        <v>0.0271124656559813</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -1870,19 +1870,19 @@
         <v>20185</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12195</v>
+        <v>12269</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31946</v>
+        <v>30325</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01466679870329339</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008860977097440147</v>
+        <v>0.008914930466576231</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02321290324067743</v>
+        <v>0.02203462098848122</v>
       </c>
     </row>
     <row r="20">
@@ -1899,7 +1899,7 @@
         <v>265988</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>262803</v>
+        <v>262433</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>266882</v>
@@ -1908,7 +1908,7 @@
         <v>0.9966483402323659</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9847145981225967</v>
+        <v>0.9833294523849374</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1920,19 +1920,19 @@
         <v>1090061</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1079999</v>
+        <v>1079274</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1097713</v>
+        <v>1097544</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9826110643190129</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9735414140018421</v>
+        <v>0.9728875343440186</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9895093369023648</v>
+        <v>0.9893572031507528</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1290</v>
@@ -1941,19 +1941,19 @@
         <v>1356048</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1344287</v>
+        <v>1345908</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1364038</v>
+        <v>1363964</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9853332012967067</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9767870967593226</v>
+        <v>0.9779653790115188</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9911390229025601</v>
+        <v>0.9910850695334238</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>39165</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28176</v>
+        <v>27609</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54968</v>
+        <v>53791</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01144539762447019</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00823410404168678</v>
+        <v>0.008068163499401003</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01606353261251449</v>
+        <v>0.01571947655135894</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -2066,19 +2066,19 @@
         <v>71617</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55332</v>
+        <v>54748</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91528</v>
+        <v>90983</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02019143019768942</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01559995218786431</v>
+        <v>0.01543551992823481</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02580484272144992</v>
+        <v>0.02565144273156521</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -2087,19 +2087,19 @@
         <v>110782</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89366</v>
+        <v>90830</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>135382</v>
+        <v>133144</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01589685574648411</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01282369146501422</v>
+        <v>0.01303377006321008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01942680300885852</v>
+        <v>0.01910569968423253</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>3382745</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3366942</v>
+        <v>3368119</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3393734</v>
+        <v>3394301</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9885546023755298</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9839364673874854</v>
+        <v>0.9842805234486405</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9917658959583131</v>
+        <v>0.9919318365005987</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3224</v>
@@ -2137,19 +2137,19 @@
         <v>3475298</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3455387</v>
+        <v>3455932</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3491583</v>
+        <v>3492167</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9798085698023106</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9741951572785504</v>
+        <v>0.9743485572684346</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9844000478121357</v>
+        <v>0.9845644800717651</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6393</v>
@@ -2158,19 +2158,19 @@
         <v>6858043</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6833443</v>
+        <v>6835681</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6879459</v>
+        <v>6877995</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9841031442535159</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9805731969911423</v>
+        <v>0.9808943003157671</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9871763085349859</v>
+        <v>0.9869662299367898</v>
       </c>
     </row>
     <row r="24">
@@ -2504,19 +2504,19 @@
         <v>3950</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9709</v>
+        <v>9938</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009204467699727386</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00225807116062019</v>
+        <v>0.002260159874126714</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02262751307664141</v>
+        <v>0.02316101317993587</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2525,19 +2525,19 @@
         <v>8515</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4070</v>
+        <v>4242</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15969</v>
+        <v>16476</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02453590527974951</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01172832069910317</v>
+        <v>0.01222169399917378</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04601287359546869</v>
+        <v>0.04747340862066771</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2546,19 +2546,19 @@
         <v>12465</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7145</v>
+        <v>6550</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22119</v>
+        <v>20757</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01605993606528685</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009205470220187896</v>
+        <v>0.008439354613750677</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02849874427356722</v>
+        <v>0.02674334402400236</v>
       </c>
     </row>
     <row r="5">
@@ -2575,19 +2575,19 @@
         <v>425142</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>419383</v>
+        <v>419154</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428123</v>
+        <v>428122</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9907955323002726</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9773724869233587</v>
+        <v>0.9768389868200643</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9977419288393798</v>
+        <v>0.9977398401258732</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>324</v>
@@ -2596,19 +2596,19 @@
         <v>338540</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>331086</v>
+        <v>330579</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>342985</v>
+        <v>342813</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9754640947202505</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9539871264045311</v>
+        <v>0.9525265913793324</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9882716793008967</v>
+        <v>0.9877783060008262</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>716</v>
@@ -2617,19 +2617,19 @@
         <v>763682</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>754028</v>
+        <v>755390</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>769002</v>
+        <v>769597</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9839400639347131</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9715012557264328</v>
+        <v>0.9732566559759976</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9907945297798121</v>
+        <v>0.9915606453862492</v>
       </c>
     </row>
     <row r="6">
@@ -2721,19 +2721,19 @@
         <v>2685</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7293</v>
+        <v>7490</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007116913883456334</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001941246004374702</v>
+        <v>0.001937314680936736</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01933370081617708</v>
+        <v>0.01985480697056062</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11931</v>
+        <v>11653</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008627310733575333</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03204863477667696</v>
+        <v>0.0313012643334882</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -2763,19 +2763,19 @@
         <v>5896</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2082</v>
+        <v>1996</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14998</v>
+        <v>14981</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007867120920682421</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002778239494465643</v>
+        <v>0.002662573913032484</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02001004427977566</v>
+        <v>0.01998844583354691</v>
       </c>
     </row>
     <row r="8">
@@ -2792,19 +2792,19 @@
         <v>374542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>369934</v>
+        <v>369737</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376495</v>
+        <v>376496</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9928830861165436</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9806662991838229</v>
+        <v>0.980145193029439</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9980587539956253</v>
+        <v>0.9980626853190633</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>350</v>
@@ -2813,7 +2813,7 @@
         <v>369061</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>360342</v>
+        <v>360620</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>372273</v>
@@ -2822,7 +2822,7 @@
         <v>0.9913726892664246</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9679513652233233</v>
+        <v>0.9686987356665118</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2834,19 +2834,19 @@
         <v>743604</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>734502</v>
+        <v>734519</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>747418</v>
+        <v>747504</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9921328790793176</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9799899557202243</v>
+        <v>0.9800115541664544</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9972217605055342</v>
+        <v>0.9973374260869676</v>
       </c>
     </row>
     <row r="9">
@@ -2938,19 +2938,19 @@
         <v>6457</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2241</v>
+        <v>2368</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13491</v>
+        <v>13021</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01237170516696807</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004293383968651423</v>
+        <v>0.004537390593879767</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02584846455781661</v>
+        <v>0.02494886518674517</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2959,19 +2959,19 @@
         <v>7945</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3157</v>
+        <v>3466</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14257</v>
+        <v>15627</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04782483686655987</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01900544274366992</v>
+        <v>0.02086584351665399</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08582473997427575</v>
+        <v>0.09407145227441256</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -2980,19 +2980,19 @@
         <v>14402</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7950</v>
+        <v>7989</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24672</v>
+        <v>23514</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02093167792587524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01155439006094578</v>
+        <v>0.01161190871176834</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03585863145547945</v>
+        <v>0.03417488596797954</v>
       </c>
     </row>
     <row r="11">
@@ -3009,19 +3009,19 @@
         <v>515457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>508423</v>
+        <v>508893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>519673</v>
+        <v>519546</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9876282948330319</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9741515354421835</v>
+        <v>0.9750511348132548</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9957066160313487</v>
+        <v>0.9954626094061203</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -3030,19 +3030,19 @@
         <v>158178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151866</v>
+        <v>150496</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162966</v>
+        <v>162657</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9521751631334401</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9141752600257237</v>
+        <v>0.9059285477255882</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9809945572563301</v>
+        <v>0.9791341564833461</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>642</v>
@@ -3051,19 +3051,19 @@
         <v>673634</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>663364</v>
+        <v>664522</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>680086</v>
+        <v>680047</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9790683220741248</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9641413685445204</v>
+        <v>0.9658251140320203</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9884456099390542</v>
+        <v>0.9883880912882317</v>
       </c>
     </row>
     <row r="12">
@@ -3155,19 +3155,19 @@
         <v>7510</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3506</v>
+        <v>3451</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13832</v>
+        <v>14736</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006532479149101533</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003049578061077582</v>
+        <v>0.003002052695249132</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01203153996940184</v>
+        <v>0.01281789710346368</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3176,19 +3176,19 @@
         <v>18074</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10470</v>
+        <v>10519</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29134</v>
+        <v>28651</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02188454840791015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01267789501623671</v>
+        <v>0.01273622835243576</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0352769137236509</v>
+        <v>0.03469212529970126</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -3197,19 +3197,19 @@
         <v>25584</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16643</v>
+        <v>16008</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37977</v>
+        <v>37922</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01295050600470971</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008424788538718652</v>
+        <v>0.008102972271188788</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01922404268850772</v>
+        <v>0.01919606335452056</v>
       </c>
     </row>
     <row r="14">
@@ -3226,19 +3226,19 @@
         <v>1142128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1135806</v>
+        <v>1134902</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1146132</v>
+        <v>1146187</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9934675208508985</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9879684600305989</v>
+        <v>0.9871821028965363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9969504219389225</v>
+        <v>0.9969979473047508</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>782</v>
@@ -3247,19 +3247,19 @@
         <v>807802</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>796742</v>
+        <v>797225</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>815406</v>
+        <v>815357</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9781154515920899</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9647230862763492</v>
+        <v>0.9653078747002987</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9873221049837643</v>
+        <v>0.9872637716475642</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1877</v>
@@ -3268,19 +3268,19 @@
         <v>1949930</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1937537</v>
+        <v>1937592</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1958871</v>
+        <v>1959506</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9870494939952903</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9807759573114923</v>
+        <v>0.9808039366454795</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9915752114612812</v>
+        <v>0.9918970277288113</v>
       </c>
     </row>
     <row r="15">
@@ -3372,19 +3372,19 @@
         <v>9133</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4673</v>
+        <v>4526</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15778</v>
+        <v>16408</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01471379038969167</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007528498584267456</v>
+        <v>0.007291697007684055</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02541961241391262</v>
+        <v>0.02643413691243156</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -3393,19 +3393,19 @@
         <v>20185</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11715</v>
+        <v>12867</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31301</v>
+        <v>31963</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02734193075696379</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01586831778645376</v>
+        <v>0.01742927495643055</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04239974618275785</v>
+        <v>0.04329645627374627</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -3414,19 +3414,19 @@
         <v>29318</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19587</v>
+        <v>19893</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42275</v>
+        <v>41566</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02157397687392804</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01441334502395417</v>
+        <v>0.01463847850327121</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03110827655628504</v>
+        <v>0.0305866902311308</v>
       </c>
     </row>
     <row r="17">
@@ -3443,19 +3443,19 @@
         <v>611573</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>604928</v>
+        <v>604298</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>616033</v>
+        <v>616180</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9852862096103083</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9745803875860873</v>
+        <v>0.9735658630875685</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9924715014157326</v>
+        <v>0.9927083029923159</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>681</v>
@@ -3464,19 +3464,19 @@
         <v>718059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>706943</v>
+        <v>706281</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>726529</v>
+        <v>725377</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9726580692430362</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.957600253817242</v>
+        <v>0.9567035437262538</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9841316822135462</v>
+        <v>0.9825707250435693</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1268</v>
@@ -3485,19 +3485,19 @@
         <v>1329632</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1316675</v>
+        <v>1317384</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1339363</v>
+        <v>1339057</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.978426023126072</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9688917234437149</v>
+        <v>0.9694133097688692</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9855866549760459</v>
+        <v>0.9853615214967287</v>
       </c>
     </row>
     <row r="18">
@@ -3602,19 +3602,19 @@
         <v>13220</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7347</v>
+        <v>7139</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23164</v>
+        <v>22061</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01221746954948864</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006790262025839626</v>
+        <v>0.006597917960709737</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02140789089832592</v>
+        <v>0.02038867141173592</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -3623,19 +3623,19 @@
         <v>13220</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7707</v>
+        <v>6815</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22703</v>
+        <v>23408</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009655196715503146</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00562928425426138</v>
+        <v>0.004977507037249145</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01658147276817111</v>
+        <v>0.01709661302093627</v>
       </c>
     </row>
     <row r="20">
@@ -3665,19 +3665,19 @@
         <v>1068805</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1058861</v>
+        <v>1059964</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1074678</v>
+        <v>1074886</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9877825304505113</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9785921091016738</v>
+        <v>0.9796113285882639</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9932097379741603</v>
+        <v>0.9934020820392903</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1252</v>
@@ -3686,19 +3686,19 @@
         <v>1355950</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1346467</v>
+        <v>1345762</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1361463</v>
+        <v>1362355</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9903448032844968</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9834185272318285</v>
+        <v>0.9829033869790638</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9943707157457387</v>
+        <v>0.9950224929627509</v>
       </c>
     </row>
     <row r="21">
@@ -3790,19 +3790,19 @@
         <v>29734</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20944</v>
+        <v>20377</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42116</v>
+        <v>42410</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008782216013532069</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006185914901557872</v>
+        <v>0.006018597423242354</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01243919682810903</v>
+        <v>0.01252602242454587</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -3811,19 +3811,19 @@
         <v>71150</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55870</v>
+        <v>54223</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90510</v>
+        <v>93110</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02014680305344081</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01582010485889948</v>
+        <v>0.01535355013223915</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02562875243466229</v>
+        <v>0.02636490414063905</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -3832,19 +3832,19 @@
         <v>100885</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>82771</v>
+        <v>81629</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>124320</v>
+        <v>122403</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01458433880391389</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01196570911251172</v>
+        <v>0.01180070290062366</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01797230730365115</v>
+        <v>0.01769514444053161</v>
       </c>
     </row>
     <row r="23">
@@ -3861,19 +3861,19 @@
         <v>3355988</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3343606</v>
+        <v>3343312</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3364778</v>
+        <v>3365345</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.991217783986468</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9875608031718909</v>
+        <v>0.9874739775754539</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.993814085098442</v>
+        <v>0.9939814025767576</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3263</v>
@@ -3882,19 +3882,19 @@
         <v>3460446</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3441086</v>
+        <v>3438486</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3475726</v>
+        <v>3477373</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9798531969465591</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9743712475653378</v>
+        <v>0.9736350958593609</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9841798951411006</v>
+        <v>0.9846464498677608</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6456</v>
@@ -3903,19 +3903,19 @@
         <v>6816433</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6792998</v>
+        <v>6794915</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6834547</v>
+        <v>6835689</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9854156611960861</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9820276926963489</v>
+        <v>0.9823048555594686</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9880342908874883</v>
+        <v>0.9881992970993764</v>
       </c>
     </row>
     <row r="24">
@@ -4249,19 +4249,19 @@
         <v>17588</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10658</v>
+        <v>11242</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26497</v>
+        <v>26765</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.031941888327756</v>
+        <v>0.03194188832775599</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01935678910375255</v>
+        <v>0.02041642846451432</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04812268261684187</v>
+        <v>0.04860971387800599</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -4270,19 +4270,19 @@
         <v>9450</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5556</v>
+        <v>5703</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15408</v>
+        <v>15947</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01934782059738093</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01137546711437181</v>
+        <v>0.0116776030441547</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03154739589843956</v>
+        <v>0.03265158640928053</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -4291,19 +4291,19 @@
         <v>27037</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18926</v>
+        <v>19146</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37286</v>
+        <v>38172</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02602186215303427</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01821517264746558</v>
+        <v>0.0184266555241997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03588568051397782</v>
+        <v>0.03673781518684435</v>
       </c>
     </row>
     <row r="5">
@@ -4320,19 +4320,19 @@
         <v>533030</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>524121</v>
+        <v>523853</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>539960</v>
+        <v>539376</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.968058111672244</v>
+        <v>0.9680581116722442</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.951877317383157</v>
+        <v>0.9513902861219941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9806432108962473</v>
+        <v>0.9795835715354857</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>671</v>
@@ -4341,19 +4341,19 @@
         <v>478961</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>473003</v>
+        <v>472464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>482855</v>
+        <v>482708</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9806521794026192</v>
+        <v>0.980652179402619</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9684526041015604</v>
+        <v>0.9673484135907194</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9886245328856291</v>
+        <v>0.9883223969558452</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1203</v>
@@ -4362,19 +4362,19 @@
         <v>1011992</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1001743</v>
+        <v>1000857</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1020103</v>
+        <v>1019883</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9739781378469659</v>
+        <v>0.9739781378469657</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9641143194860222</v>
+        <v>0.9632621848131557</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9817848273525344</v>
+        <v>0.9815733444758004</v>
       </c>
     </row>
     <row r="6">
@@ -4466,19 +4466,19 @@
         <v>10958</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6143</v>
+        <v>6089</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18500</v>
+        <v>17920</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02272245390913962</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01273786142964647</v>
+        <v>0.01262575458855542</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03836022667149622</v>
+        <v>0.03715869700969111</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -4487,19 +4487,19 @@
         <v>7761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4094</v>
+        <v>4177</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13064</v>
+        <v>13345</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01839969525841574</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009705617080965182</v>
+        <v>0.009902490857504847</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03097286192164717</v>
+        <v>0.03163786582693363</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -4508,19 +4508,19 @@
         <v>18719</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12435</v>
+        <v>12521</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27302</v>
+        <v>27993</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02070562872417034</v>
+        <v>0.02070562872417033</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01375479689234617</v>
+        <v>0.01384965717126361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03019940851899036</v>
+        <v>0.03096302894770063</v>
       </c>
     </row>
     <row r="8">
@@ -4537,19 +4537,19 @@
         <v>471309</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>463767</v>
+        <v>464347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476124</v>
+        <v>476178</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9772775460908605</v>
+        <v>0.9772775460908604</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9616397733285036</v>
+        <v>0.9628413029903078</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9872621385703533</v>
+        <v>0.9873742454114444</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>575</v>
@@ -4558,19 +4558,19 @@
         <v>414042</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>408739</v>
+        <v>408458</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>417709</v>
+        <v>417626</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9816003047415842</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9690271380783523</v>
+        <v>0.9683621341730667</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9902943829190347</v>
+        <v>0.9900975091424956</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1041</v>
@@ -4579,19 +4579,19 @@
         <v>885351</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>876768</v>
+        <v>876077</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>891635</v>
+        <v>891549</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9792943712758296</v>
+        <v>0.9792943712758295</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9698005914810096</v>
+        <v>0.9690369710523008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9862452031076538</v>
+        <v>0.9861503428287365</v>
       </c>
     </row>
     <row r="9">
@@ -4683,19 +4683,19 @@
         <v>12501</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7437</v>
+        <v>7007</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20317</v>
+        <v>20798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02661751382913196</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0158350164736275</v>
+        <v>0.01491967818330351</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04325942008735381</v>
+        <v>0.044284093843544</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -4704,19 +4704,19 @@
         <v>2973</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1172</v>
+        <v>1246</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6286</v>
+        <v>6347</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.015856718031242</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006249556275568452</v>
+        <v>0.006645026243686039</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03352383348434512</v>
+        <v>0.03384976353458233</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -4725,19 +4725,19 @@
         <v>15474</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9940</v>
+        <v>9833</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23737</v>
+        <v>24220</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02354722255506719</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01512644705188479</v>
+        <v>0.0149634226464502</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0361211759307657</v>
+        <v>0.03685634334802512</v>
       </c>
     </row>
     <row r="11">
@@ -4754,19 +4754,19 @@
         <v>457144</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>449328</v>
+        <v>448847</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>462208</v>
+        <v>462638</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.973382486170868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9567405799126462</v>
+        <v>0.9557159061564567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9841649835263725</v>
+        <v>0.9850803218166965</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>283</v>
@@ -4775,19 +4775,19 @@
         <v>184524</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>181211</v>
+        <v>181150</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186325</v>
+        <v>186251</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.984143281968758</v>
+        <v>0.9841432819687579</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9664761665156558</v>
+        <v>0.966150236465419</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9937504437244319</v>
+        <v>0.9933549737563142</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>754</v>
@@ -4796,19 +4796,19 @@
         <v>641669</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>633406</v>
+        <v>632923</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647203</v>
+        <v>647310</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9764527774449329</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9638788240692345</v>
+        <v>0.963143656651975</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9848735529481153</v>
+        <v>0.9850365773535499</v>
       </c>
     </row>
     <row r="12">
@@ -4900,19 +4900,19 @@
         <v>21116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13666</v>
+        <v>14646</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30288</v>
+        <v>30645</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01870104684138283</v>
+        <v>0.01870104684138284</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01210288126404106</v>
+        <v>0.01297132016578649</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02682469829619943</v>
+        <v>0.02714082094407504</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -4921,19 +4921,19 @@
         <v>16218</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10864</v>
+        <v>11510</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22380</v>
+        <v>24708</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01884743089930061</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01262553096186302</v>
+        <v>0.01337609470013839</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02600771093109581</v>
+        <v>0.028713966336847</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -4942,19 +4942,19 @@
         <v>37334</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29343</v>
+        <v>28199</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48795</v>
+        <v>47567</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01876435743809811</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01474824035302368</v>
+        <v>0.01417294897062854</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02452494623622347</v>
+        <v>0.02390741577593614</v>
       </c>
     </row>
     <row r="14">
@@ -4971,19 +4971,19 @@
         <v>1108000</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1098828</v>
+        <v>1098471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1115450</v>
+        <v>1114470</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9812989531586171</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9731753017038007</v>
+        <v>0.972859179055925</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.987897118735959</v>
+        <v>0.9870286798342133</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1198</v>
@@ -4992,19 +4992,19 @@
         <v>844285</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>838123</v>
+        <v>835795</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>849639</v>
+        <v>848993</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9811525691006994</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9739922890689043</v>
+        <v>0.971286033663153</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9873744690381372</v>
+        <v>0.9866239052998617</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2285</v>
@@ -5013,19 +5013,19 @@
         <v>1952285</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1940824</v>
+        <v>1942052</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1960276</v>
+        <v>1961420</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9812356425619019</v>
+        <v>0.9812356425619018</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9754750537637764</v>
+        <v>0.9760925842240638</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9852517596469762</v>
+        <v>0.9858270510293715</v>
       </c>
     </row>
     <row r="15">
@@ -5117,19 +5117,19 @@
         <v>7625</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4046</v>
+        <v>3855</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13740</v>
+        <v>13820</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01344855322484596</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007136661739225287</v>
+        <v>0.006799441940067273</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02423441463739525</v>
+        <v>0.02437440187731119</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -5138,19 +5138,19 @@
         <v>26546</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19863</v>
+        <v>19874</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35641</v>
+        <v>36302</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03200516255267165</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02394809670810358</v>
+        <v>0.02396186518770925</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04297042562887406</v>
+        <v>0.04376767050737393</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -5159,19 +5159,19 @@
         <v>34171</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25575</v>
+        <v>25980</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44125</v>
+        <v>45002</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02447065698090373</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01831514355355665</v>
+        <v>0.01860504821976068</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0315994325436295</v>
+        <v>0.03222742708991883</v>
       </c>
     </row>
     <row r="17">
@@ -5188,19 +5188,19 @@
         <v>559351</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>553236</v>
+        <v>553156</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>562930</v>
+        <v>563121</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9865514467751543</v>
+        <v>0.9865514467751538</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9757655853626045</v>
+        <v>0.9756255981226886</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9928633382607748</v>
+        <v>0.9932005580599325</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1243</v>
@@ -5209,19 +5209,19 @@
         <v>802874</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>793779</v>
+        <v>793118</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>809557</v>
+        <v>809546</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9679948374473284</v>
+        <v>0.9679948374473283</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.957029574371126</v>
+        <v>0.956232329492625</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9760519032918964</v>
+        <v>0.9760381348122906</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1778</v>
@@ -5230,19 +5230,19 @@
         <v>1362225</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1352271</v>
+        <v>1351394</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1370821</v>
+        <v>1370416</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9755293430190961</v>
+        <v>0.9755293430190964</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9684005674563704</v>
+        <v>0.9677725729100808</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9816848564464434</v>
+        <v>0.9813949517802389</v>
       </c>
     </row>
     <row r="18">
@@ -5347,19 +5347,19 @@
         <v>19836</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13927</v>
+        <v>14076</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27322</v>
+        <v>26817</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02351315510203579</v>
+        <v>0.0235131551020358</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01650874712658526</v>
+        <v>0.0166863000275544</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03238760630868825</v>
+        <v>0.03178838846314577</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -5368,19 +5368,19 @@
         <v>19836</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13934</v>
+        <v>13737</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27023</v>
+        <v>27651</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0183523023087118</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01289224461705798</v>
+        <v>0.0127096820958421</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02500232596699397</v>
+        <v>0.02558300783617325</v>
       </c>
     </row>
     <row r="20">
@@ -5410,19 +5410,19 @@
         <v>823760</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>816274</v>
+        <v>816779</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>829669</v>
+        <v>829520</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9764868448979642</v>
+        <v>0.9764868448979643</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9676123936913118</v>
+        <v>0.9682116115368543</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9834912528734148</v>
+        <v>0.9833136999724456</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1235</v>
@@ -5431,19 +5431,19 @@
         <v>1060988</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1053801</v>
+        <v>1053173</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1066890</v>
+        <v>1067087</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.981647697691288</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9749976740330069</v>
+        <v>0.9744169921638269</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9871077553829423</v>
+        <v>0.9872903179041583</v>
       </c>
     </row>
     <row r="21">
@@ -5535,19 +5535,19 @@
         <v>69788</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55239</v>
+        <v>56157</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85469</v>
+        <v>86605</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02031157338221398</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01607710417334321</v>
+        <v>0.01634451120951689</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02487561976071962</v>
+        <v>0.02520638150774512</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>145</v>
@@ -5556,19 +5556,19 @@
         <v>82783</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>70485</v>
+        <v>70754</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98104</v>
+        <v>96660</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02279762458461315</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01941075747316124</v>
+        <v>0.01948498617736269</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02701683547459149</v>
+        <v>0.02661894696249318</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>235</v>
@@ -5577,19 +5577,19 @@
         <v>152571</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>132392</v>
+        <v>134048</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>172910</v>
+        <v>174426</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02158896419606114</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01873363886583685</v>
+        <v>0.01896789111319427</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0244669201560968</v>
+        <v>0.02468148125109442</v>
       </c>
     </row>
     <row r="23">
@@ -5606,19 +5606,19 @@
         <v>3366062</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3350381</v>
+        <v>3349245</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3380611</v>
+        <v>3379693</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.979688426617786</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9751243802392806</v>
+        <v>0.9747936184922552</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9839228958266568</v>
+        <v>0.9836554887904833</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5093</v>
@@ -5627,19 +5627,19 @@
         <v>3548447</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3533126</v>
+        <v>3534570</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3560745</v>
+        <v>3560476</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9772023754153867</v>
+        <v>0.9772023754153869</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9729831645254087</v>
+        <v>0.9733810530375067</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9805892425268387</v>
+        <v>0.9805150138226369</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8296</v>
@@ -5648,19 +5648,19 @@
         <v>6914509</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6894170</v>
+        <v>6892654</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6934688</v>
+        <v>6933032</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9784110358039388</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.975533079843903</v>
+        <v>0.9753185187489056</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9812663611341633</v>
+        <v>0.981032108886806</v>
       </c>
     </row>
     <row r="24">
